--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2A_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2A_genetic_schedule.xlsx
@@ -518,11 +518,11 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 31</t>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>MA 324 - Mathematics
+2A
+Room 134</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +540,21 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>CN 321 - Networking
+2A
+Room 137</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>IT 326 - IOT Applications
+2A
+Room 310</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,13 +562,9 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 139</t>
-        </is>
-      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -562,7 +572,9 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -570,7 +582,14 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SE 319 - Software Engineering
+2A
+Room 139</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -586,7 +605,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -608,13 +626,6 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>PH 320 - Physics
-2A
-Room 138</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -622,14 +633,6 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 11, 13</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -637,8 +640,13 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>IT 323 - Web Development
+2A
+Room 135</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -646,8 +654,7 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -657,12 +664,25 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
+          <t>IT 326 - IOT Applications
+2A
+Room 13</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
           <t>DB 325 - Database Management
 2A
 Room 14</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>PH 320 - Physics
+2A
+Room 138</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -671,6 +691,22 @@
         </is>
       </c>
       <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>IT 326 - IOT Applications
+2A
+Room 11</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>EN 322 - English
+2A
+Room 136</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -679,6 +715,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -686,7 +726,9 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -701,13 +743,6 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 15</t>
-        </is>
-      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -715,7 +750,20 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>DB 325 - Database Management
+2A
+Room 133</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IT 323 - Web Development
+2A
+Room 15</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -723,7 +771,8 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -731,12 +780,18 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 132</t>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>SE 319 - Software Engineering
+2A
+Room 31</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>CN 321 - Networking
+2A
+Room 17</t>
         </is>
       </c>
     </row>
@@ -746,7 +801,8 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -754,7 +810,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -764,19 +820,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H24:H26"/>
+  <mergeCells count="14">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2A_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2A_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +127,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +590,36 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>MA 324 - Mathematics
-2A
-Room 134</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 304
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -532,7 +629,10 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,21 +640,10 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>CN 321 - Networking
-2A
-Room 137</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 310</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -562,9 +651,31 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2A
+Room 305
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2A
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -572,9 +683,17 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 303
+Emp: 9</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -582,14 +701,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 139</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -597,7 +712,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -605,6 +720,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
+      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -626,6 +742,38 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2A
+Room 303
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 304
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -633,6 +781,10 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="8" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -640,13 +792,10 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 135</t>
-        </is>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="8" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -654,7 +803,31 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -662,27 +835,17 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 13</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>DB 325 - Database Management
-2A
-Room 14</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>PH 320 - Physics
-2A
-Room 138</t>
-        </is>
-      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 303
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -690,23 +853,10 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 11</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>EN 322 - English
-2A
-Room 136</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="9" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -714,11 +864,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="D18" s="10" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -726,9 +872,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="D19" s="10" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -743,6 +887,46 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 303
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 304
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -750,20 +934,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>DB 325 - Database Management
-2A
-Room 133</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>IT 323 - Web Development
-2A
-Room 15</t>
-        </is>
-      </c>
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="9" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -771,8 +946,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="9" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -780,20 +958,16 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 31</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>CN 321 - Networking
-2A
-Room 17</t>
-        </is>
-      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n"/>
+      <c r="F24" s="9" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -801,8 +975,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="10" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -810,7 +983,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
+      <c r="C26" s="10" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -820,21 +993,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C22:C23"/>
+  <mergeCells count="22">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
